--- a/Docs/TablasDatos-Lab4.xlsx
+++ b/Docs/TablasDatos-Lab4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/2021-20/Laboratorios/Lab 04 - Ordenamientos Iter + Rec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\OneDrive - Universidad de los Andes\2021_02\Estructura de Datos y Algoritmos\Laboratorio\Laboratorio 4\LabSorts-S05-G01\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F3EF8E-9153-42A5-8ACF-6285D7DFF156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03378F29-474C-4872-A65F-A19769A8FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="6" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Insertion Sort [ms]</t>
   </si>
@@ -72,12 +72,15 @@
   <si>
     <t>Tamaño de la muestra (LINKED_LIST)</t>
   </si>
+  <si>
+    <t>Small</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,7 +559,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -623,7 +626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -711,73 +714,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$2:$C$9</c:f>
+              <c:f>'Datos Lab4-5'!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>36.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>406.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,73 +840,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$2:$D$9</c:f>
+              <c:f>'Datos Lab4-5'!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>1078.1300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,73 +966,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$E$2:$E$9</c:f>
+              <c:f>'Datos Lab4-5'!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>74.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,67 +1052,30 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$F$2:$F$9</c:f>
+              <c:f>'Datos Lab4-5'!$F$2:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>46.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1175,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1358,7 +1213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1442,7 +1297,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1480,7 +1335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1522,7 +1377,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1559,7 +1414,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1568,7 +1423,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1635,7 +1490,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1660,7 +1515,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab4-5'!$C$12</c:f>
+              <c:f>'Datos Lab4-5'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1732,73 +1587,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$13:$C$20</c:f>
+              <c:f>'Datos Lab4-5'!$C$7:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1640.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>239750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,7 +1633,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab4-5'!$D$12</c:f>
+              <c:f>'Datos Lab4-5'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1887,73 +1705,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$13:$D$20</c:f>
+              <c:f>'Datos Lab4-5'!$D$7:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1656.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>622890.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,7 +1751,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab4-5'!$E$12</c:f>
+              <c:f>'Datos Lab4-5'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2050,73 +1831,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$E$13:$E$20</c:f>
+              <c:f>'Datos Lab4-5'!$E$7:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>1390.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>1359140.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,7 +1877,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab4-5'!$F$12</c:f>
+              <c:f>'Datos Lab4-5'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2213,73 +1957,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$F$13:$F$20</c:f>
+              <c:f>'Datos Lab4-5'!$F$7:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>203.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>27960.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2379,7 +2086,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2417,7 +2124,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -2501,7 +2208,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2539,7 +2246,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -2581,7 +2288,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2618,7 +2325,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2627,7 +2334,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2694,7 +2401,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2781,73 +2488,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$2:$C$9</c:f>
+              <c:f>'Datos Lab4-5'!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>36.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>406.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2534,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab4-5'!$C$12</c:f>
+              <c:f>'Datos Lab4-5'!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2936,73 +2606,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$13:$C$20</c:f>
+              <c:f>'Datos Lab4-5'!$C$7:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>1640.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>239750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,7 +2735,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3140,7 +2773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3219,7 +2852,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3257,7 +2890,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3299,7 +2932,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3336,7 +2969,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3345,7 +2978,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3415,7 +3048,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3502,73 +3135,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$2:$D$9</c:f>
+              <c:f>'Datos Lab4-5'!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>1078.1300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3585,7 +3181,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab4-5'!$D$12</c:f>
+              <c:f>'Datos Lab4-5'!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3657,73 +3253,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$13:$D$20</c:f>
+              <c:f>'Datos Lab4-5'!$D$7:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1656.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>622890.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,7 +3382,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3861,7 +3420,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3940,7 +3499,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3978,7 +3537,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4020,7 +3579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4057,7 +3616,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4066,7 +3625,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4136,7 +3695,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4223,73 +3782,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$E$2:$E$9</c:f>
+              <c:f>'Datos Lab4-5'!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>74.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>3750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4306,7 +3828,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab4-5'!$E$12</c:f>
+              <c:f>'Datos Lab4-5'!$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4378,73 +3900,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$E$13:$E$20</c:f>
+              <c:f>'Datos Lab4-5'!$E$7:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>1390.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>1359140.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,7 +4029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4582,7 +4067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4661,7 +4146,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4699,7 +4184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4741,7 +4226,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4778,7 +4263,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4787,7 +4272,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4857,7 +4342,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4945,73 +4430,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$F$2:$F$9</c:f>
+              <c:f>'Datos Lab4-5'!$F$2:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>46.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,7 +4476,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Lab4-5'!$F$12</c:f>
+              <c:f>'Datos Lab4-5'!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5101,73 +4549,36 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Lab4-5'!$A$13:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>'Datos Lab4-5'!$A$7:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>10,00%</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$F$13:$F$20</c:f>
+              <c:f>'Datos Lab4-5'!$F$7:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>203.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>27960.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,7 +4678,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5305,7 +4716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5384,7 +4795,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5422,7 +4833,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -5464,7 +4875,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5501,7 +4912,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -8852,7 +8263,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8874,7 +8285,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8885,7 +8296,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8896,7 +8307,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8907,7 +8318,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661768" cy="6283739"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8940,7 +8351,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676680" cy="6295430"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8973,7 +8384,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9006,7 +8417,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676680" cy="6295430"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9039,7 +8450,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676680" cy="6295430"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9072,7 +8483,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8676680" cy="6295430"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9102,8 +8513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:F9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F9" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:F3" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F3" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="12">
@@ -9119,8 +8530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A12:F20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A12:F20" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A6:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A6:F8" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Porcentaje de la muestra [pct]" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="4">
@@ -9136,7 +8547,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9432,23 +8843,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.46875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.41015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.64453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.87890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="27.35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="28.5">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -9468,375 +8879,113 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="5">
-        <v>5.0000000000000001E-3</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="7">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>50</v>
+        <v>768</v>
       </c>
       <c r="C2" s="3">
-        <v>15.7</v>
+        <v>36.46</v>
       </c>
       <c r="D2" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>74.22</v>
+      </c>
+      <c r="F2" s="4">
+        <v>46.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15008</v>
+      </c>
+      <c r="C3" s="3">
+        <v>406.25</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1078.1300000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3750</v>
+      </c>
+      <c r="F3" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
-        <v>20</v>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="F2" s="4">
-        <v>60</v>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="B3" s="7">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>500</v>
-      </c>
-      <c r="C3" s="3">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3">
-        <f>D2+15</f>
-        <v>19</v>
-      </c>
-      <c r="E3" s="4">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="B4" s="7">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>1000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">D3+10</f>
-        <v>29</v>
-      </c>
-      <c r="E4" s="4">
-        <v>60</v>
-      </c>
-      <c r="F4" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="B5" s="7">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>2000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E5" s="4">
-        <v>80</v>
-      </c>
-      <c r="F5" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="B6" s="7">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>3000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>75</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E6" s="4">
-        <v>100</v>
-      </c>
-      <c r="F6" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B7" s="7">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>5000</v>
-      </c>
-      <c r="C7" s="3">
-        <v>90</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="E7" s="4">
-        <v>120</v>
-      </c>
-      <c r="F7" s="4">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="B8" s="7">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>8000</v>
-      </c>
-      <c r="C8" s="3">
-        <v>105</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E8" s="4">
-        <v>140</v>
-      </c>
-      <c r="F8" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="5">
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
-        <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>10000</v>
-      </c>
-      <c r="C9" s="3">
-        <v>120</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E9" s="4">
-        <v>160</v>
-      </c>
-      <c r="F9" s="4">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="27.35" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="5">
-        <v>5.0000000000000001E-3</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="B13" s="7">
-        <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>50</v>
+      <c r="B7" s="7">
+        <v>768</v>
       </c>
-      <c r="C13" s="3">
-        <v>50</v>
+      <c r="C7" s="3">
+        <v>1640.63</v>
       </c>
-      <c r="D13" s="3">
-        <v>35</v>
+      <c r="D7" s="3">
+        <v>1656.25</v>
       </c>
-      <c r="E13" s="4">
-        <v>30</v>
+      <c r="E7" s="4">
+        <v>1390.63</v>
       </c>
-      <c r="F13" s="4">
-        <v>70</v>
+      <c r="F7" s="4">
+        <v>203.13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="5">
-        <v>0.05</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
+        <v>0.1</v>
       </c>
-      <c r="B14" s="7">
-        <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>500</v>
+      <c r="B8" s="7">
+        <v>15008</v>
       </c>
-      <c r="C14" s="3">
-        <v>60</v>
+      <c r="C8" s="3">
+        <v>239750</v>
       </c>
-      <c r="D14" s="3">
-        <f>D13+43</f>
-        <v>78</v>
+      <c r="D8" s="3">
+        <v>622890.63</v>
       </c>
-      <c r="E14" s="4">
-        <v>60</v>
+      <c r="E8" s="4">
+        <v>1359140.63</v>
       </c>
-      <c r="F14" s="4">
-        <v>90</v>
+      <c r="F8" s="4">
+        <v>27960.94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="B15" s="7">
-        <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>1000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>70</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" ref="D15:D20" si="1">D14+10</f>
-        <v>88</v>
-      </c>
-      <c r="E15" s="4">
-        <v>90</v>
-      </c>
-      <c r="F15" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="B16" s="7">
-        <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>2000</v>
-      </c>
-      <c r="C16" s="3">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="E16" s="4">
-        <v>120</v>
-      </c>
-      <c r="F16" s="4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="B17" s="7">
-        <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>3000</v>
-      </c>
-      <c r="C17" s="3">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="E17" s="4">
-        <v>150</v>
-      </c>
-      <c r="F17" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B18" s="7">
-        <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>5000</v>
-      </c>
-      <c r="C18" s="3">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="E18" s="4">
-        <v>180</v>
-      </c>
-      <c r="F18" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="B19" s="7">
-        <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>8000</v>
-      </c>
-      <c r="C19" s="3">
-        <v>110</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="E19" s="4">
-        <v>210</v>
-      </c>
-      <c r="F19" s="4">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7">
-        <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
-        <v>10000</v>
-      </c>
-      <c r="C20" s="3">
-        <v>120</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="E20" s="4">
-        <v>240</v>
-      </c>
-      <c r="F20" s="4">
-        <v>210</v>
-      </c>
+    <row r="12" spans="1:6" s="8" customFormat="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12"/>
+      <c r="F12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9848,112 +8997,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10174,15 +9223,142 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -10197,16 +9373,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>